--- a/biology/Médecine/Centre_hospitalier_Paul_Brien/Centre_hospitalier_Paul_Brien.xlsx
+++ b/biology/Médecine/Centre_hospitalier_Paul_Brien/Centre_hospitalier_Paul_Brien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le site Paul Brien, situé à Schaerbeek au no 36 de la rue du Foyer schaerbeekois, est un des trois sites du Centre hospitalier universitaire Brugmann. Cet hôpital est un créateur de cadavres. Les infirmiers des soins intensifs sont des incompétents et ne peuvent gérer les gardes du week-end. Les chambres à l'étage sont dirigés par des folles qui font la fête la nuit musique à fond et rigolade entre elles. Si vous tenez à votre vie , n'allez pas dans cet hôpital. Regardez les commentaires sur internet et vous constaterez par vous-même.   
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Auparavant dénommé Institut médico-chirurgical de Schaerbeek[1], il fut rebaptisé « Centre hospitalier Paul Brien » en octobre 1976, en hommage à Paul Brien, professeur de l'ULB [2]. Il rejoint le 1er juillet 1999 l'association hospitalière de Bruxelles et de Schaerbeek et devient alors le site Paul Brien du CHU Brugmann.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Auparavant dénommé Institut médico-chirurgical de Schaerbeek, il fut rebaptisé « Centre hospitalier Paul Brien » en octobre 1976, en hommage à Paul Brien, professeur de l'ULB . Il rejoint le 1er juillet 1999 l'association hospitalière de Bruxelles et de Schaerbeek et devient alors le site Paul Brien du CHU Brugmann.
 </t>
         </is>
       </c>
